--- a/feebacks-timesheets/feedback_occurences.xlsx
+++ b/feebacks-timesheets/feedback_occurences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asarpa\Desktop\thesis\feebacks-timesheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ed268711e0b185e/Desktop/Tesi/thesis/feebacks-timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFBA775-8208-4A57-BC95-DFC26573DE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{ECFBA775-8208-4A57-BC95-DFC26573DE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF9F1486-6A32-47A2-9A46-9F6CF7876895}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>client needs not clear</t>
   </si>
   <si>
-    <t>too many person on the user story</t>
-  </si>
-  <si>
     <t>Feedback collection count</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>over</t>
+  </si>
+  <si>
+    <t>code review take a lot of time</t>
   </si>
 </sst>
 </file>
@@ -149,14 +149,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,128 +437,128 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
+    </row>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
         <v>0</v>
       </c>
     </row>

--- a/feebacks-timesheets/feedback_occurences.xlsx
+++ b/feebacks-timesheets/feedback_occurences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ed268711e0b185e/Desktop/Tesi/thesis/feebacks-timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{ECFBA775-8208-4A57-BC95-DFC26573DE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF9F1486-6A32-47A2-9A46-9F6CF7876895}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{ECFBA775-8208-4A57-BC95-DFC26573DE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F6E7E28-B9F2-4C27-86C3-D1AF9CB7EE2B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,13 +436,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -525,10 +525,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>

--- a/feebacks-timesheets/feedback_occurences.xlsx
+++ b/feebacks-timesheets/feedback_occurences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ed268711e0b185e/Desktop/Tesi/thesis/feebacks-timesheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asarpa\Desktop\thesis\feebacks-timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{ECFBA775-8208-4A57-BC95-DFC26573DE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F6E7E28-B9F2-4C27-86C3-D1AF9CB7EE2B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9061291A-CB59-4367-9B63-54157F817D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="840" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,16 +437,16 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -458,7 +458,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -468,7 +468,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -478,7 +478,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -492,7 +492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -520,21 +520,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
